--- a/assets/rebate_calculation.xlsx
+++ b/assets/rebate_calculation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arpan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\nft-web-api\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{366CAA69-1DC7-4DAD-AA64-F32EF8E62899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133605C5-5410-414F-A483-DE5E06332150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{FD894B1B-C80B-4C85-973E-6A4143F132A0}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Level</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Level-2</t>
   </si>
@@ -58,13 +55,47 @@
   </si>
   <si>
     <t>Lv.C</t>
+  </si>
+  <si>
+    <t>RANK_2</t>
+  </si>
+  <si>
+    <t>RANK_3</t>
+  </si>
+  <si>
+    <t>RANK_4</t>
+  </si>
+  <si>
+    <t>RANK_5</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Upline Rank</t>
+  </si>
+  <si>
+    <t>% from Level-2</t>
+  </si>
+  <si>
+    <t>% from Level-3</t>
+  </si>
+  <si>
+    <t>% from Level-4</t>
+  </si>
+  <si>
+    <t>% from Level-5</t>
+  </si>
+  <si>
+    <t>If  LvA (depth=1) person earn some money, A upline user with Level2 (RANK_2) will earn 12% of profit from that user. Similarly from a LvB (depth=2) the upline user with level3(RANK_3) will earn 12%.
+Similarly if a LvB (depth=2) person earn some money, a upline RANK_3 user will earn 6% team income from his profit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +103,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,13 +147,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,83 +506,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7AF2F-B04E-43E4-AAC1-6E0760602F36}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B2" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
         <v>0.12</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C12" s="2">
         <v>0.13</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D12" s="2">
         <v>0.15</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E12" s="2">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B19" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E19" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I13:P16"/>
+    <mergeCell ref="I4:Q12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/rebate_calculation.xlsx
+++ b/assets/rebate_calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\nft-web-api\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133605C5-5410-414F-A483-DE5E06332150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D9E5D3-FB30-4052-A369-9F88B801D469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{FD894B1B-C80B-4C85-973E-6A4143F132A0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Level-2</t>
   </si>
@@ -89,13 +89,189 @@
   <si>
     <t>If  LvA (depth=1) person earn some money, A upline user with Level2 (RANK_2) will earn 12% of profit from that user. Similarly from a LvB (depth=2) the upline user with level3(RANK_3) will earn 12%.
 Similarly if a LvB (depth=2) person earn some money, a upline RANK_3 user will earn 6% team income from his profit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Team Profit Distribution Structure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When a user earns profit, a portion is distributed to their upline team members based on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>depth level and the upline user's rank.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lv.A (Depth = 1):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    If a Lv.A user earns money, their upline at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rank 2 (Level 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> receives 12% of the profit. Higher ranks (Level 3 and above) receive even more, as shown in the table.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lv.B (Depth = 2):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    If a Lv.B user earns profit, their upline at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rank 3 (Level 3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> earns 6% as team income. Higher-level uplines receive larger percentages.
+    The percentage of team profit earned by the upline increases with both the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>depth of the earning user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rank of the upline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +288,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -506,15 +690,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7AF2F-B04E-43E4-AAC1-6E0760602F36}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -531,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -548,7 +732,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -565,7 +749,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -593,7 +777,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -604,7 +788,7 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -615,7 +799,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -626,7 +810,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -637,7 +821,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -648,7 +832,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -659,7 +843,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -685,7 +869,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -711,7 +895,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -727,7 +911,9 @@
       <c r="E13" s="2">
         <v>0.08</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -735,8 +921,10 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -760,8 +948,10 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -770,8 +960,10 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -795,8 +987,10 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -812,8 +1006,18 @@
       <c r="E17" s="7">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -829,8 +1033,18 @@
       <c r="E18" s="7">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -846,11 +1060,213 @@
       <c r="E19" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="9:18" x14ac:dyDescent="0.45">
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="9:18" x14ac:dyDescent="0.45">
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="9:18" x14ac:dyDescent="0.45">
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I13:P16"/>
     <mergeCell ref="I4:Q12"/>
+    <mergeCell ref="I13:R35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
